--- a/data/trans_orig/P51_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P51_1-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4053</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9425</v>
+        <v>9443</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03973727966190713</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009647062314784715</v>
+        <v>0.009543563394589609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09240871036147935</v>
+        <v>0.09258691085762936</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -776,19 +776,19 @@
         <v>4053</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9883</v>
+        <v>9661</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03071949742755767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007546223023224486</v>
+        <v>0.007657170273658854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07490933289527296</v>
+        <v>0.07322294854113998</v>
       </c>
     </row>
     <row r="5">
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5094</v>
+        <v>5245</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01021045080316466</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04993845035742123</v>
+        <v>0.05142736055796105</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>4757</v>
+        <v>5887</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007893341462996549</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0360573427140236</v>
+        <v>0.04462058205981063</v>
       </c>
     </row>
     <row r="6">
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6760</v>
+        <v>5500</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01109352700767732</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06627253643293082</v>
+        <v>0.05392775237136072</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8762</v>
+        <v>9232</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09689978879225231</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2926407909917825</v>
+        <v>0.3083418849482137</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -910,19 +910,19 @@
         <v>4033</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1135</v>
+        <v>1098</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11783</v>
+        <v>10731</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03056597680042547</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008602549486126742</v>
+        <v>0.008320374704798164</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08930962327878217</v>
+        <v>0.08133281402191569</v>
       </c>
     </row>
     <row r="7">
@@ -939,19 +939,19 @@
         <v>95770</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>89972</v>
+        <v>89469</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>99889</v>
+        <v>99838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9389587425272509</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8821149956263878</v>
+        <v>0.8771851640180331</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9793441246952254</v>
+        <v>0.9788426342422687</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -960,7 +960,7 @@
         <v>27040</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21179</v>
+        <v>20709</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>29941</v>
@@ -969,7 +969,7 @@
         <v>0.9031002112077477</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7073592090082175</v>
+        <v>0.6916581150517865</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -981,19 +981,19 @@
         <v>122810</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114881</v>
+        <v>114719</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127873</v>
+        <v>127657</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9308211843090203</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8707293922622124</v>
+        <v>0.8694967255971412</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9691988927333114</v>
+        <v>0.9675619100164401</v>
       </c>
     </row>
     <row r="8">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5664</v>
+        <v>5584</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02584699288429251</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1358186982370082</v>
+        <v>0.1339187245655475</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4434</v>
+        <v>5526</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.008167648717208443</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03360381819982932</v>
+        <v>0.04187423150593858</v>
       </c>
     </row>
     <row r="10">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7184</v>
+        <v>7590</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02355540207337015</v>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07959007802835058</v>
+        <v>0.08409158002179219</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6968</v>
+        <v>6520</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01611189596071866</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05280585721353077</v>
+        <v>0.04941165098904919</v>
       </c>
     </row>
     <row r="12">
@@ -1258,7 +1258,7 @@
         <v>88136</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>83078</v>
+        <v>82672</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>90262</v>
@@ -1267,7 +1267,7 @@
         <v>0.9764445979266299</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9204099219716502</v>
+        <v>0.9159084199782078</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>40622</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36036</v>
+        <v>36116</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>41700</v>
@@ -1288,7 +1288,7 @@
         <v>0.9741530071157075</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8641813017629917</v>
+        <v>0.8660812754344525</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1300,19 +1300,19 @@
         <v>128758</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>123161</v>
+        <v>122843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>130966</v>
+        <v>130936</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9757204553220729</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9333092112629703</v>
+        <v>0.9308946083503292</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.992453197922179</v>
+        <v>0.992225111087778</v>
       </c>
     </row>
     <row r="13">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5242</v>
+        <v>5653</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007975925790393834</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04053437862125841</v>
+        <v>0.04371287493784064</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6668</v>
+        <v>6777</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1201088203450856</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4109353485289119</v>
+        <v>0.4176694387863011</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11381</v>
+        <v>10494</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02047579206778558</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07819150983278955</v>
+        <v>0.07209824912423311</v>
       </c>
     </row>
     <row r="15">
@@ -1475,19 +1475,19 @@
         <v>4716</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1837</v>
+        <v>1742</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10312</v>
+        <v>9788</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03646342124837111</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01420323603876301</v>
+        <v>0.01346815134662762</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07973306520791872</v>
+        <v>0.07568264116579861</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1509,19 +1509,19 @@
         <v>4716</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1728</v>
+        <v>1805</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10141</v>
+        <v>9787</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03239870953794133</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01187194246695947</v>
+        <v>0.01240356540598327</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06967262252542596</v>
+        <v>0.06723841507424813</v>
       </c>
     </row>
     <row r="16">
@@ -1538,19 +1538,19 @@
         <v>5626</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1874</v>
+        <v>1936</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11503</v>
+        <v>11930</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04349923421357877</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01448611585613732</v>
+        <v>0.01496785459069338</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08894175848896241</v>
+        <v>0.09224414682450047</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>5626</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2214</v>
+        <v>1948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11861</v>
+        <v>12009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03865021454813638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01520741766687617</v>
+        <v>0.01338479164658242</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08148325538530891</v>
+        <v>0.08250593354492421</v>
       </c>
     </row>
     <row r="17">
@@ -1601,19 +1601,19 @@
         <v>117959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>110874</v>
+        <v>110762</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>122863</v>
+        <v>122925</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9120614187476563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8572830896591329</v>
+        <v>0.8564193966517665</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9499817143209587</v>
+        <v>0.9504607108951014</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1622,7 +1622,7 @@
         <v>14277</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9558</v>
+        <v>9449</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>16226</v>
@@ -1631,7 +1631,7 @@
         <v>0.8798911796549144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5890646514710881</v>
+        <v>0.5823305612136989</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1643,19 +1643,19 @@
         <v>132236</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>123240</v>
+        <v>123273</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>137951</v>
+        <v>137829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9084752838461367</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.846675496319202</v>
+        <v>0.8468973622149747</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9477373130970995</v>
+        <v>0.9469000243679313</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>10302</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4380</v>
+        <v>4980</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18704</v>
+        <v>20372</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0471182010317945</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02003249121070447</v>
+        <v>0.02277813981486852</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08554281856101442</v>
+        <v>0.09317529902997478</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1768,19 +1768,19 @@
         <v>3164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9160</v>
+        <v>9228</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04096102121994732</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01274274956662564</v>
+        <v>0.01271382297104225</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1185927631327261</v>
+        <v>0.1194810249404211</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -1789,19 +1789,19 @@
         <v>13466</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7199</v>
+        <v>7192</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24853</v>
+        <v>24650</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04551095266680657</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02432968697271706</v>
+        <v>0.02430798016383908</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08399661442634941</v>
+        <v>0.08331108085119099</v>
       </c>
     </row>
     <row r="20">
@@ -1818,19 +1818,19 @@
         <v>3739</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10525</v>
+        <v>10386</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01710172728624088</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003936242054410599</v>
+        <v>0.003833491189185759</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04813857160582216</v>
+        <v>0.04750367416459205</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5589</v>
+        <v>5051</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01301505518749698</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.072360981635569</v>
+        <v>0.06540330310504359</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -1860,19 +1860,19 @@
         <v>4744</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1026</v>
+        <v>1074</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12928</v>
+        <v>12049</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.016034956906024</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003469199616940931</v>
+        <v>0.003630225829394882</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04369278057346109</v>
+        <v>0.04072402250066254</v>
       </c>
     </row>
     <row r="21">
@@ -1889,19 +1889,19 @@
         <v>2908</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8599</v>
+        <v>7838</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01330224048509175</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004172077983505161</v>
+        <v>0.004195852430480121</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03932877095633659</v>
+        <v>0.03584658352836487</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1923,19 +1923,19 @@
         <v>2908</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8043</v>
+        <v>8085</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.009829870841248927</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0030934111082894</v>
+        <v>0.00306914207779526</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02718321813366084</v>
+        <v>0.02732537550639271</v>
       </c>
     </row>
     <row r="22">
@@ -1952,19 +1952,19 @@
         <v>201695</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192123</v>
+        <v>190445</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>209195</v>
+        <v>208906</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9224778311968729</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8786966008217691</v>
+        <v>0.8710254176976371</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9567808321565688</v>
+        <v>0.9554567028556774</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -1973,19 +1973,19 @@
         <v>73067</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66440</v>
+        <v>66463</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76047</v>
+        <v>76081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9460239235925557</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8602176948746429</v>
+        <v>0.8605168718600813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9845996857410604</v>
+        <v>0.9850519689309922</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>255</v>
@@ -1994,19 +1994,19 @@
         <v>274761</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>261214</v>
+        <v>262476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>282851</v>
+        <v>282989</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9286242195859206</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8828382090991235</v>
+        <v>0.8871019174489512</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9559638756536465</v>
+        <v>0.9564301219094465</v>
       </c>
     </row>
     <row r="23">
@@ -2101,16 +2101,16 @@
         <v>1917</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11849</v>
+        <v>11002</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05321158869570247</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02048234118552437</v>
+        <v>0.02048445757270333</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1265874173657232</v>
+        <v>0.1175316961611368</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>11101</v>
+        <v>9556</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0566508001612083</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2085055957025085</v>
+        <v>0.1794961435650674</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -2140,19 +2140,19 @@
         <v>7997</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3340</v>
+        <v>3184</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>16091</v>
+        <v>15461</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.05445848706364164</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02274308334904627</v>
+        <v>0.02168204846297857</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1095807927270734</v>
+        <v>0.1052891439249991</v>
       </c>
     </row>
     <row r="25">
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3815</v>
+        <v>3456</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007894022165314901</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04075557309158868</v>
+        <v>0.03691744472318481</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1</v>
@@ -2193,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4986</v>
+        <v>6923</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02245339028873089</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09365976558436484</v>
+        <v>0.1300411045949962</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6556</v>
+        <v>6674</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01317257294167521</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04464348844011663</v>
+        <v>0.04545057481259162</v>
       </c>
     </row>
     <row r="26">
@@ -2240,19 +2240,19 @@
         <v>3717</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8554</v>
+        <v>8662</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03970903108929819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01002363911004739</v>
+        <v>0.01003444568482174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09138708685532747</v>
+        <v>0.09254070437983537</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -2264,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>6072</v>
+        <v>6255</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03707071878097282</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1140430157572145</v>
+        <v>0.1174826713300795</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2282,19 +2282,19 @@
         <v>5691</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2719</v>
+        <v>2709</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>11591</v>
+        <v>11638</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03875250156374868</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01851751575954651</v>
+        <v>0.01845022484148431</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07893126601062396</v>
+        <v>0.07925611542604502</v>
       </c>
     </row>
     <row r="27">
@@ -2311,19 +2311,19 @@
         <v>84169</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>76578</v>
+        <v>77811</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>88755</v>
+        <v>88791</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.8991853580496845</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8180838725842301</v>
+        <v>0.8312651218575605</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9481763568485299</v>
+        <v>0.9485591300757774</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>44</v>
@@ -2332,19 +2332,19 @@
         <v>47054</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>40170</v>
+        <v>40974</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51267</v>
+        <v>51140</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.883825090769088</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.7545158060065621</v>
+        <v>0.7696237776287846</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.962958385810796</v>
+        <v>0.9605807462956489</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>126</v>
@@ -2353,19 +2353,19 @@
         <v>131223</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>122624</v>
+        <v>122250</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>137343</v>
+        <v>137393</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.8936164384309345</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8350567063955943</v>
+        <v>0.8325122604995736</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9352897498228367</v>
+        <v>0.9356310294142224</v>
       </c>
     </row>
     <row r="28">
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5211</v>
+        <v>4648</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.00957295921558916</v>
@@ -2469,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05461004813982984</v>
+        <v>0.04870677425013506</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2478,19 +2478,19 @@
         <v>10104</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>5115</v>
+        <v>5034</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>16608</v>
+        <v>17162</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1082031829942119</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0547793466766326</v>
+        <v>0.05390545825119154</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.17785860878225</v>
+        <v>0.1837929472923383</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>11</v>
@@ -2499,19 +2499,19 @@
         <v>11017</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5872</v>
+        <v>5929</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>19306</v>
+        <v>19089</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0583523779184213</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03110043153221771</v>
+        <v>0.03140019384430973</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1022544301805241</v>
+        <v>0.1011042788920368</v>
       </c>
     </row>
     <row r="30">
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6210</v>
+        <v>6049</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01805794220353264</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0650716755766621</v>
+        <v>0.06338579527875222</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>3832</v>
+        <v>4679</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009958495360718946</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04103308414563273</v>
+        <v>0.05010686000098933</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -2570,19 +2570,19 @@
         <v>2653</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>7031</v>
+        <v>7472</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01405220954197325</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003987271763515553</v>
+        <v>0.003975072016772752</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0372403171538793</v>
+        <v>0.03957450746378328</v>
       </c>
     </row>
     <row r="31">
@@ -2599,19 +2599,19 @@
         <v>8929</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>4078</v>
+        <v>4017</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>16024</v>
+        <v>15439</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.09356484653460206</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04273236609046724</v>
+        <v>0.04208916732426603</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1679161305566583</v>
+        <v>0.1617841968539902</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>6</v>
@@ -2620,19 +2620,19 @@
         <v>5856</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>2803</v>
+        <v>2655</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>12617</v>
+        <v>11681</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06271289497532677</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.03001729069739141</v>
+        <v>0.02843811547107362</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1351127387424738</v>
+        <v>0.1250961641815153</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>15</v>
@@ -2641,19 +2641,19 @@
         <v>14785</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>8848</v>
+        <v>8992</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>23175</v>
+        <v>24030</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.078306437851608</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04686194464826762</v>
+        <v>0.04762617952850019</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1227433168901133</v>
+        <v>0.1272709408223576</v>
       </c>
     </row>
     <row r="32">
@@ -2670,19 +2670,19 @@
         <v>83863</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>76325</v>
+        <v>76675</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88953</v>
+        <v>89000</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8788042520462761</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7998127512991737</v>
+        <v>0.8034740891803988</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9321410318314169</v>
+        <v>0.9326291962048178</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>75</v>
@@ -2691,19 +2691,19 @@
         <v>76488</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67995</v>
+        <v>68744</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>82464</v>
+        <v>83236</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.8191254266697424</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7281679614466008</v>
+        <v>0.7361925010327742</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8831166586560011</v>
+        <v>0.8913903326934186</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>159</v>
@@ -2712,19 +2712,19 @@
         <v>160352</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>149182</v>
+        <v>148691</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>168884</v>
+        <v>168082</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8492889746879975</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7901317968708432</v>
+        <v>0.7875296088381274</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8944806597958438</v>
+        <v>0.8902300519042871</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>21281</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>13195</v>
+        <v>13215</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33621</v>
+        <v>33101</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02918150302859183</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01809302238788786</v>
+        <v>0.01812107128680595</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04610243265859221</v>
+        <v>0.04538930960096984</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>17</v>
@@ -2837,19 +2837,19 @@
         <v>19310</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11159</v>
+        <v>11285</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29709</v>
+        <v>30877</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0619472373951571</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03579953240341792</v>
+        <v>0.03620186201060324</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09530540852171843</v>
+        <v>0.0990541852826826</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>36</v>
@@ -2858,19 +2858,19 @@
         <v>40591</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>28201</v>
+        <v>28820</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>56206</v>
+        <v>55479</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03899306463247249</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02709016983216426</v>
+        <v>0.02768548266008598</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05399237988360804</v>
+        <v>0.05329466050588699</v>
       </c>
     </row>
     <row r="35">
@@ -2887,19 +2887,19 @@
         <v>11959</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6560</v>
+        <v>5780</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>20514</v>
+        <v>19898</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01639816732310553</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.008994932324113091</v>
+        <v>0.007925119099332753</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02812982060391489</v>
+        <v>0.02728509563628007</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -2908,19 +2908,19 @@
         <v>3131</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>9248</v>
+        <v>9298</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01004277032928511</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.002975582385292508</v>
+        <v>0.002983110452557557</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02966777836024976</v>
+        <v>0.029826526969922</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>15</v>
@@ -2929,19 +2929,19 @@
         <v>15089</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>8791</v>
+        <v>8435</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25497</v>
+        <v>24456</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01449507037357961</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.008445108748333119</v>
+        <v>0.0081026454814116</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02449259211718258</v>
+        <v>0.02349289435772106</v>
       </c>
     </row>
     <row r="36">
@@ -2958,19 +2958,19 @@
         <v>24438</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>16602</v>
+        <v>16528</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35028</v>
+        <v>34549</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03350991686874603</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02276557412915657</v>
+        <v>0.02266383365650332</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04803105158758734</v>
+        <v>0.04737534006327996</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>10</v>
@@ -2979,19 +2979,19 @@
         <v>10731</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>5549</v>
+        <v>5468</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>19658</v>
+        <v>18718</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03442487371222169</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01779972935605053</v>
+        <v>0.01754161924211674</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0630628138134694</v>
+        <v>0.06004872554053629</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>35</v>
@@ -3000,19 +3000,19 @@
         <v>35169</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>24300</v>
+        <v>23938</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>47301</v>
+        <v>48121</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03378389685449035</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02334343543837199</v>
+        <v>0.02299542311730204</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04543883343066785</v>
+        <v>0.04622597482618915</v>
       </c>
     </row>
     <row r="37">
@@ -3029,19 +3029,19 @@
         <v>671592</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>654695</v>
+        <v>655370</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>685754</v>
+        <v>684880</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9209104127795567</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8977396197216582</v>
+        <v>0.8986657464052467</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9403298793813527</v>
+        <v>0.939130929013713</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>264</v>
@@ -3050,19 +3050,19 @@
         <v>278548</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>266816</v>
+        <v>264251</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>289122</v>
+        <v>288397</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8935851185633361</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8559486581329642</v>
+        <v>0.8477178544754167</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9275047576803087</v>
+        <v>0.9251786659748352</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>903</v>
@@ -3071,19 +3071,19 @@
         <v>950141</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>930460</v>
+        <v>930675</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>968861</v>
+        <v>967634</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9127279681394576</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8938223738379686</v>
+        <v>0.8940290764230998</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9307110671109766</v>
+        <v>0.9295328485108937</v>
       </c>
     </row>
     <row r="38">
@@ -3417,19 +3417,19 @@
         <v>3140</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>974</v>
+        <v>991</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8616</v>
+        <v>8512</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03392269796914753</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01052578290581289</v>
+        <v>0.01070889505884848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09306808205238436</v>
+        <v>0.09193889262084141</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7226</v>
+        <v>5647</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0327774477592777</v>
@@ -3450,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1271212953431506</v>
+        <v>0.09934755198066803</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3459,19 +3459,19 @@
         <v>5004</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1855</v>
+        <v>1869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10594</v>
+        <v>11055</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03348701288384724</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01241728540686597</v>
+        <v>0.01250987570499184</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07089950326758594</v>
+        <v>0.07398382782541375</v>
       </c>
     </row>
     <row r="5">
@@ -3582,19 +3582,19 @@
         <v>89438</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83962</v>
+        <v>84066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91604</v>
+        <v>91587</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9660773020308525</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9069319179476159</v>
+        <v>0.9080611073791585</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9894742170941871</v>
+        <v>0.9892911049411516</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3603,7 +3603,7 @@
         <v>54982</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49619</v>
+        <v>51198</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>56845</v>
@@ -3612,7 +3612,7 @@
         <v>0.9672225522407223</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8728787046568482</v>
+        <v>0.9006524480193321</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -3624,19 +3624,19 @@
         <v>144419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>138829</v>
+        <v>138368</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>147568</v>
+        <v>147554</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9665129871161527</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9291004967324137</v>
+        <v>0.9260161721745862</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9875827145931341</v>
+        <v>0.9874901242950082</v>
       </c>
     </row>
     <row r="8">
@@ -3728,19 +3728,19 @@
         <v>3641</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9711</v>
+        <v>9084</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03602250269622712</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.009601966932955321</v>
+        <v>0.009431418497809842</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09608377869593877</v>
+        <v>0.08988676247217385</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6045</v>
+        <v>5916</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03143772357885429</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0992185551975584</v>
+        <v>0.09709532175604817</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -3770,19 +3770,19 @@
         <v>5556</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1907</v>
+        <v>1942</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12204</v>
+        <v>12684</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03429816028621811</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01177482276517</v>
+        <v>0.01198559653910583</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07533473461821261</v>
+        <v>0.07830188435507582</v>
       </c>
     </row>
     <row r="10">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4060</v>
+        <v>5081</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.009729237634417017</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04016880151181308</v>
+        <v>0.05027250029838192</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4748</v>
+        <v>4698</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01533749147235358</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0779397441985008</v>
+        <v>0.07710362595557331</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5891</v>
+        <v>5824</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01183851044588263</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03636521091251451</v>
+        <v>0.0359554153766674</v>
       </c>
     </row>
     <row r="12">
@@ -3917,19 +3917,19 @@
         <v>96442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>89778</v>
+        <v>90256</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>100058</v>
+        <v>100067</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9542482596693559</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8883103188603864</v>
+        <v>0.8930417624894643</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9900254030075673</v>
+        <v>0.9901167900161103</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -3938,19 +3938,19 @@
         <v>58075</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>53222</v>
+        <v>53080</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60006</v>
+        <v>60002</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9532247849487921</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.873566326316156</v>
+        <v>0.871233634289925</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9849234062436616</v>
+        <v>0.9848497060122011</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -3959,19 +3959,19 @@
         <v>154518</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>147830</v>
+        <v>147090</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159125</v>
+        <v>159004</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9538633292678993</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9125746373446123</v>
+        <v>0.9080081188298108</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9823046211543768</v>
+        <v>0.9815568360884984</v>
       </c>
     </row>
     <row r="13">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5275</v>
+        <v>4213</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03599582600404452</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1865171781413605</v>
+        <v>0.1489790824668846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5112</v>
+        <v>5165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007428478863917134</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03730468365055824</v>
+        <v>0.03769053208386192</v>
       </c>
     </row>
     <row r="15">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4771</v>
+        <v>6922</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.008831050053967983</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0438652237094134</v>
+        <v>0.06364541328423727</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>4442</v>
+        <v>4780</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.007008581285930144</v>
@@ -4172,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03241332296752183</v>
+        <v>0.03487728618712618</v>
       </c>
     </row>
     <row r="16">
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6362</v>
+        <v>6244</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01146644391121357</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05848987013511529</v>
+        <v>0.05740797100176284</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4230</v>
+        <v>5137</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03556125721992942</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1495476929194949</v>
+        <v>0.1816293864160323</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -4234,7 +4234,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7338</v>
+        <v>8105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0164389040896163</v>
@@ -4243,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0535464041389979</v>
+        <v>0.05913708038155115</v>
       </c>
     </row>
     <row r="17">
@@ -4260,7 +4260,7 @@
         <v>106556</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101647</v>
+        <v>101218</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>108764</v>
@@ -4269,7 +4269,7 @@
         <v>0.9797025060348185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9345625626510713</v>
+        <v>0.930617424325869</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -4281,7 +4281,7 @@
         <v>26258</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21092</v>
+        <v>22241</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>28282</v>
@@ -4290,7 +4290,7 @@
         <v>0.9284429167760261</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7457741002488971</v>
+        <v>0.7864009855778128</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -4302,19 +4302,19 @@
         <v>132815</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>126961</v>
+        <v>126308</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>136041</v>
+        <v>135828</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9691240357605364</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9264126532769695</v>
+        <v>0.9216456797584908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9926660967560802</v>
+        <v>0.9911148008548057</v>
       </c>
     </row>
     <row r="18">
@@ -4406,19 +4406,19 @@
         <v>7639</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3780</v>
+        <v>2947</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14174</v>
+        <v>13596</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03185308561784703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01576295968331504</v>
+        <v>0.01228987312512218</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05910031420259372</v>
+        <v>0.05669215516819379</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -4427,19 +4427,19 @@
         <v>7173</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2793</v>
+        <v>2815</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13758</v>
+        <v>13911</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06237834611303585</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02429211450540373</v>
+        <v>0.0244796482714183</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1196479759612748</v>
+        <v>0.1209833039766698</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>15</v>
@@ -4448,19 +4448,19 @@
         <v>14812</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8756</v>
+        <v>8438</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23931</v>
+        <v>23455</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04174559042699465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02467803217152108</v>
+        <v>0.02378101769516734</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06744774756792396</v>
+        <v>0.06610673202911847</v>
       </c>
     </row>
     <row r="20">
@@ -4480,7 +4480,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5596</v>
+        <v>5626</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.00464926243011498</v>
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02333349026258087</v>
+        <v>0.02345906800534618</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4731</v>
+        <v>4218</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.008081039261081665</v>
@@ -4510,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04113991029094199</v>
+        <v>0.03667984271104086</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7302</v>
+        <v>7464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.005761418993352503</v>
@@ -4531,7 +4531,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02057989510845869</v>
+        <v>0.02103743182361734</v>
       </c>
     </row>
     <row r="21">
@@ -4548,19 +4548,19 @@
         <v>4363</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10714</v>
+        <v>10207</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01819262229481445</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005635642878872069</v>
+        <v>0.005627682526717416</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04467352613815474</v>
+        <v>0.04255850647223161</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4655</v>
+        <v>3771</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007840797220693462</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04048370056209753</v>
+        <v>0.03279396211994477</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -4590,19 +4590,19 @@
         <v>5265</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1886</v>
+        <v>2005</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11813</v>
+        <v>11307</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01483784406629328</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005314600650937557</v>
+        <v>0.005650624604288218</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03329420338497201</v>
+        <v>0.03186699703952414</v>
       </c>
     </row>
     <row r="22">
@@ -4619,19 +4619,19 @@
         <v>226709</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>218799</v>
+        <v>218874</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>232041</v>
+        <v>232847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9453050296572235</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9123224161624987</v>
+        <v>0.9126372784827403</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9675374713464573</v>
+        <v>0.9708996618868352</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>105</v>
@@ -4640,19 +4640,19 @@
         <v>105983</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98994</v>
+        <v>99761</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>110463</v>
+        <v>111183</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.921699817405189</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8609261546126493</v>
+        <v>0.8675945159931759</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9606666978922732</v>
+        <v>0.9669295571203719</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>321</v>
@@ -4661,19 +4661,19 @@
         <v>332691</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>322236</v>
+        <v>322301</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>340614</v>
+        <v>341081</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9376551465133596</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9081893038440007</v>
+        <v>0.9083719298485758</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9599839617988166</v>
+        <v>0.961300079040652</v>
       </c>
     </row>
     <row r="23">
@@ -4768,7 +4768,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9404</v>
+        <v>9079</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02211576435636263</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07504627243211921</v>
+        <v>0.07244800553456193</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7015</v>
+        <v>6764</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03475569798000273</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1214453203590087</v>
+        <v>0.1170962761756403</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -4807,19 +4807,19 @@
         <v>4779</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1065</v>
+        <v>1032</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13126</v>
+        <v>11143</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02610379806734167</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005814854265710789</v>
+        <v>0.005637304802734661</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07169644208389282</v>
+        <v>0.06086619119795252</v>
       </c>
     </row>
     <row r="25">
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5477</v>
+        <v>5154</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00803460525607929</v>
@@ -4848,7 +4848,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04370997021990133</v>
+        <v>0.04112730621493437</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6019</v>
+        <v>5109</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.005499601705449413</v>
@@ -4882,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03288040019636815</v>
+        <v>0.02790616479184028</v>
       </c>
     </row>
     <row r="26">
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>4180</v>
+        <v>5508</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.008111702131740083</v>
@@ -4911,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03335888096044699</v>
+        <v>0.04395528699866639</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5703</v>
+        <v>5125</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005552373695529212</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03115213797691943</v>
+        <v>0.02799649043070358</v>
       </c>
     </row>
     <row r="27">
@@ -4962,19 +4962,19 @@
         <v>120516</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>112846</v>
+        <v>113538</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>123856</v>
+        <v>124289</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9617379282558179</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9005278645098759</v>
+        <v>0.9060494531715693</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9883916174572165</v>
+        <v>0.9918458890570222</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>53</v>
@@ -4983,7 +4983,7 @@
         <v>55753</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>50746</v>
+        <v>50997</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>57761</v>
@@ -4992,7 +4992,7 @@
         <v>0.9652443020199972</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8785546796409913</v>
+        <v>0.8829037238243694</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5004,19 +5004,19 @@
         <v>176270</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>167959</v>
+        <v>168877</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>180092</v>
+        <v>180313</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9628442265316797</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9174473628787518</v>
+        <v>0.922463141427233</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9837202516018186</v>
+        <v>0.98493070859248</v>
       </c>
     </row>
     <row r="28">
@@ -5111,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.022535359028668</v>
@@ -5120,7 +5120,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06871187245424458</v>
+        <v>0.06871816643505757</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5755</v>
+        <v>5795</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01528220184411967</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07589313223205887</v>
+        <v>0.07642288145962597</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5150,19 +5150,19 @@
         <v>3095</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8084</v>
+        <v>9086</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01913454830548942</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005965241638067722</v>
+        <v>0.005933251673322569</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04998807697123167</v>
+        <v>0.05618288540831487</v>
       </c>
     </row>
     <row r="30">
@@ -5226,19 +5226,19 @@
         <v>3098</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8583</v>
+        <v>8665</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03606459453626772</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01086690172359084</v>
+        <v>0.01050439188860396</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09992878533854033</v>
+        <v>0.1008806189870207</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -5247,19 +5247,19 @@
         <v>2948</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>8624</v>
+        <v>8529</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03887444650207713</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01234368689016671</v>
+        <v>0.01242506467288671</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1137358352707492</v>
+        <v>0.1124749056499114</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -5268,19 +5268,19 @@
         <v>6046</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2848</v>
+        <v>2066</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13442</v>
+        <v>12244</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03738205870431665</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0176101568460684</v>
+        <v>0.01277591090293762</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08311514067024724</v>
+        <v>0.07570963672868973</v>
       </c>
     </row>
     <row r="32">
@@ -5297,19 +5297,19 @@
         <v>80862</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>75049</v>
+        <v>75053</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>83899</v>
+        <v>83976</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9414000464350643</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8737212227249005</v>
+        <v>0.8737669208537387</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9767488757743454</v>
+        <v>0.9776430404981611</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>72</v>
@@ -5318,19 +5318,19 @@
         <v>71721</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65361</v>
+        <v>64710</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>74816</v>
+        <v>74814</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9458433516538032</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8619615347503048</v>
+        <v>0.8533758929484989</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9866569363415403</v>
+        <v>0.9866304266978184</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>147</v>
@@ -5339,19 +5339,19 @@
         <v>152584</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>144938</v>
+        <v>145413</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>156901</v>
+        <v>156839</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9434833929901939</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8962065230899549</v>
+        <v>0.8991409627656212</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9701770580092767</v>
+        <v>0.9697943202013383</v>
       </c>
     </row>
     <row r="33">
@@ -5443,19 +5443,19 @@
         <v>19127</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11529</v>
+        <v>11447</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29986</v>
+        <v>28972</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02538672830400711</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01530163488577042</v>
+        <v>0.01519353052269265</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03979932655398165</v>
+        <v>0.03845284189195104</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>15</v>
@@ -5464,19 +5464,19 @@
         <v>15136</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8890</v>
+        <v>8763</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24212</v>
+        <v>24117</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03835416783555334</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02252723686318444</v>
+        <v>0.02220582245286687</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06135410349867131</v>
+        <v>0.06111296845309968</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -5485,19 +5485,19 @@
         <v>34263</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>24584</v>
+        <v>23738</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>47005</v>
+        <v>47527</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02984404696110167</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02141341795583243</v>
+        <v>0.02067621790255232</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04094288354269831</v>
+        <v>0.04139758799382486</v>
       </c>
     </row>
     <row r="35">
@@ -5514,19 +5514,19 @@
         <v>3082</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8623</v>
+        <v>8159</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.004091010081100132</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.001273192039146927</v>
+        <v>0.001271968452387457</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01144440303296558</v>
+        <v>0.01082863105226563</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4673</v>
+        <v>4041</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.002354641829819799</v>
@@ -5547,7 +5547,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01184259328283089</v>
+        <v>0.01023910129388679</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>4</v>
@@ -5556,19 +5556,19 @@
         <v>4012</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>10388</v>
+        <v>9282</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.003494165454742687</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0008733182519813774</v>
+        <v>0.0008765239749812876</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.009048185402522868</v>
+        <v>0.008084675541540317</v>
       </c>
     </row>
     <row r="36">
@@ -5585,19 +5585,19 @@
         <v>10708</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5329</v>
+        <v>5478</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18618</v>
+        <v>18513</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01421182709862836</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.007073544095565286</v>
+        <v>0.007270835414048438</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.02471055384833086</v>
+        <v>0.02457166660943822</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -5606,19 +5606,19 @@
         <v>5790</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1946</v>
+        <v>1989</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>10875</v>
+        <v>12308</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.01467091338170552</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.004930121174193359</v>
+        <v>0.005041210354747436</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02755691914989404</v>
+        <v>0.03118876685253202</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>16</v>
@@ -5627,19 +5627,19 @@
         <v>16497</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>9943</v>
+        <v>10262</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>26673</v>
+        <v>26024</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.01436962955838134</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.008660288636638255</v>
+        <v>0.008938537206264741</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02323282983356999</v>
+        <v>0.02266746130184276</v>
       </c>
     </row>
     <row r="37">
@@ -5656,19 +5656,19 @@
         <v>720523</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>706140</v>
+        <v>708721</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>729996</v>
+        <v>730630</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.9563104345162644</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.9372205869065564</v>
+        <v>0.9406459453107644</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.9688825861101629</v>
+        <v>0.9697238015385404</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>367</v>
@@ -5677,19 +5677,19 @@
         <v>372773</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>362929</v>
+        <v>361069</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>380666</v>
+        <v>380197</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.9446202769529214</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.9196751775626774</v>
+        <v>0.9149620753219859</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.9646224679601137</v>
+        <v>0.9634339378603556</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1035</v>
@@ -5698,19 +5698,19 @@
         <v>1093296</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1078579</v>
+        <v>1076496</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1105591</v>
+        <v>1105664</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.9522921580257743</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.939473259651442</v>
+        <v>0.9376590168629452</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.9630016593833863</v>
+        <v>0.963064811159779</v>
       </c>
     </row>
     <row r="38">
